--- a/DATABASE_IA.xlsx
+++ b/DATABASE_IA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\FPNA-Tools v.1.1\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7197A9E-8D01-4979-86EE-FA82072BECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E67CAF-7B0D-49E8-AD43-F2A64AD45FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69F88D26-E53E-44EB-8F6B-6F72C75FF8C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="371">
   <si>
     <t>10.FOOD [BUMBU] - COM V.2</t>
   </si>
@@ -1135,6 +1135,9 @@
   </si>
   <si>
     <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>MINYAK MIE SHALLOT OIL</t>
   </si>
 </sst>
 </file>
@@ -1487,9 +1490,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B8BE52-5B4F-47C1-84A8-24A4E0133727}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1557,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,15 +1570,15 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,23 +1730,23 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,15 +1754,15 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1778,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1786,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1818,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,23 +1842,23 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1874,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1890,7 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1898,7 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1906,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1914,7 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1922,7 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1930,7 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1938,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,23 +1946,23 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1970,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1978,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +1986,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1994,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +2002,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2010,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2018,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2026,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2034,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2042,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2058,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2066,7 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2082,7 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2090,7 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2106,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,23 +2114,23 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2138,7 @@
         <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2146,7 @@
         <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +2162,7 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +2170,7 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,7 +2178,7 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +2186,7 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +2194,7 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2202,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2205,7 +2210,7 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2221,7 +2226,7 @@
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2234,7 @@
         <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2237,7 +2242,7 @@
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2250,7 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2253,7 +2258,7 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2266,7 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2274,7 @@
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2282,7 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2290,7 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2293,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2301,7 +2306,7 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,7 +2314,7 @@
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2322,7 @@
         <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2330,7 @@
         <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2338,7 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2346,7 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2354,7 @@
         <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2362,7 @@
         <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2370,7 @@
         <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2378,7 @@
         <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2394,7 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2402,7 @@
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2410,7 @@
         <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2418,7 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2426,7 @@
         <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2434,7 @@
         <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2442,7 @@
         <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2450,7 @@
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2453,7 +2458,7 @@
         <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2466,7 @@
         <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2474,7 @@
         <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2482,7 @@
         <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2498,7 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2506,7 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2522,7 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2530,7 @@
         <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2538,7 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2546,7 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2554,7 @@
         <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2562,7 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +2570,7 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2578,7 @@
         <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2586,7 @@
         <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2594,7 @@
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2602,7 @@
         <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2610,7 @@
         <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2618,7 @@
         <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2626,7 @@
         <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2634,7 @@
         <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,23 +2642,23 @@
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2674,7 @@
         <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2682,7 @@
         <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2690,7 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2698,7 @@
         <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2706,7 @@
         <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2714,7 @@
         <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2722,7 @@
         <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2730,7 @@
         <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2738,7 @@
         <v>65</v>
       </c>
       <c r="B155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2746,7 @@
         <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2754,7 @@
         <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +2762,7 @@
         <v>65</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2770,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +2778,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2786,7 @@
         <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2794,7 @@
         <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2802,7 @@
         <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +2810,7 @@
         <v>65</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2818,7 @@
         <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2826,7 @@
         <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2829,7 +2834,7 @@
         <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2842,7 @@
         <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2850,7 @@
         <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2853,7 +2858,7 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2861,7 +2866,7 @@
         <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +2874,7 @@
         <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2882,7 @@
         <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +2890,7 @@
         <v>65</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2898,7 @@
         <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +2906,7 @@
         <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +2914,7 @@
         <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +2922,7 @@
         <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +2930,7 @@
         <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +2938,7 @@
         <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,23 +2946,23 @@
         <v>65</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2970,7 @@
         <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +2978,7 @@
         <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +2986,7 @@
         <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +2994,7 @@
         <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3002,7 @@
         <v>65</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3010,7 @@
         <v>65</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3018,7 @@
         <v>65</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3026,7 @@
         <v>65</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3034,7 @@
         <v>65</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3050,7 @@
         <v>65</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3058,7 @@
         <v>65</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3066,7 @@
         <v>65</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3074,7 @@
         <v>65</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3082,7 @@
         <v>65</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3090,7 @@
         <v>65</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3098,7 @@
         <v>65</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3106,7 @@
         <v>65</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3114,7 @@
         <v>65</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,31 +3122,31 @@
         <v>65</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,15 +3154,15 @@
         <v>65</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,15 +3170,15 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3186,7 @@
         <v>65</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3194,7 @@
         <v>65</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3202,7 @@
         <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3210,7 @@
         <v>65</v>
       </c>
       <c r="B214" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3218,7 @@
         <v>65</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3226,7 @@
         <v>65</v>
       </c>
       <c r="B216" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3234,7 @@
         <v>65</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3242,7 @@
         <v>65</v>
       </c>
       <c r="B218" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3250,7 @@
         <v>65</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3258,7 @@
         <v>65</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3261,7 +3266,7 @@
         <v>65</v>
       </c>
       <c r="B221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3269,7 +3274,7 @@
         <v>65</v>
       </c>
       <c r="B222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3277,7 +3282,7 @@
         <v>65</v>
       </c>
       <c r="B223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3285,7 +3290,7 @@
         <v>65</v>
       </c>
       <c r="B224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3293,7 +3298,7 @@
         <v>65</v>
       </c>
       <c r="B225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3301,7 +3306,7 @@
         <v>65</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3314,7 @@
         <v>65</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3317,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,23 +3330,23 @@
         <v>65</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3349,7 +3354,7 @@
         <v>65</v>
       </c>
       <c r="B232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3357,7 +3362,7 @@
         <v>65</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3370,7 @@
         <v>65</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3373,7 +3378,7 @@
         <v>65</v>
       </c>
       <c r="B235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3386,7 @@
         <v>65</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3389,7 +3394,7 @@
         <v>65</v>
       </c>
       <c r="B237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="B238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,7 +3410,7 @@
         <v>65</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3418,7 @@
         <v>65</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3426,7 @@
         <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3429,7 +3434,7 @@
         <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3442,7 @@
         <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3450,7 @@
         <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,23 +3458,23 @@
         <v>65</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3482,7 @@
         <v>65</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3490,7 @@
         <v>65</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3498,7 @@
         <v>65</v>
       </c>
       <c r="B250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +3506,7 @@
         <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3514,7 @@
         <v>65</v>
       </c>
       <c r="B252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3522,7 @@
         <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="B254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3538,7 @@
         <v>65</v>
       </c>
       <c r="B255" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3546,7 @@
         <v>65</v>
       </c>
       <c r="B256" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3554,7 @@
         <v>65</v>
       </c>
       <c r="B257" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3562,7 @@
         <v>65</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3570,7 @@
         <v>65</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3578,7 @@
         <v>65</v>
       </c>
       <c r="B260" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3586,7 @@
         <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3594,7 @@
         <v>65</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3602,7 @@
         <v>65</v>
       </c>
       <c r="B263" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3610,7 @@
         <v>65</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3618,7 @@
         <v>65</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3634,7 @@
         <v>65</v>
       </c>
       <c r="B267" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3642,7 @@
         <v>65</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3650,7 @@
         <v>65</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3658,7 @@
         <v>65</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3666,7 @@
         <v>65</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3674,7 @@
         <v>65</v>
       </c>
       <c r="B272" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3682,7 @@
         <v>65</v>
       </c>
       <c r="B273" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3690,7 @@
         <v>65</v>
       </c>
       <c r="B274" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3698,7 @@
         <v>65</v>
       </c>
       <c r="B275" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3706,7 @@
         <v>65</v>
       </c>
       <c r="B276" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3714,7 @@
         <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,15 +3722,15 @@
         <v>65</v>
       </c>
       <c r="B278" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="B279" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,7 +3738,7 @@
         <v>287</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +3746,7 @@
         <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +3754,7 @@
         <v>287</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +3762,7 @@
         <v>287</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -3765,7 +3770,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3773,7 +3778,7 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3786,7 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -3789,7 +3794,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +3802,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3805,7 +3810,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,47 +3818,47 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,71 +3866,71 @@
         <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B298" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B301" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="B302" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="B303" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +3938,7 @@
         <v>65</v>
       </c>
       <c r="B305" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +3946,7 @@
         <v>65</v>
       </c>
       <c r="B306" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,7 +3954,7 @@
         <v>65</v>
       </c>
       <c r="B307" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,31 +3962,31 @@
         <v>65</v>
       </c>
       <c r="B308" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B309" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B311" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +3994,7 @@
         <v>13</v>
       </c>
       <c r="B312" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,39 +4002,39 @@
         <v>13</v>
       </c>
       <c r="B313" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="B314" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B316" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B317" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +4042,7 @@
         <v>65</v>
       </c>
       <c r="B318" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4050,7 @@
         <v>65</v>
       </c>
       <c r="B319" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +4058,7 @@
         <v>65</v>
       </c>
       <c r="B320" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +4066,7 @@
         <v>65</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="B322" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,23 +4082,23 @@
         <v>65</v>
       </c>
       <c r="B323" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B324" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B325" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="B326" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,7 +4114,7 @@
         <v>65</v>
       </c>
       <c r="B327" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4122,7 @@
         <v>65</v>
       </c>
       <c r="B328" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4125,7 +4130,7 @@
         <v>65</v>
       </c>
       <c r="B329" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,7 +4138,7 @@
         <v>65</v>
       </c>
       <c r="B330" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4141,7 +4146,7 @@
         <v>65</v>
       </c>
       <c r="B331" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4149,15 +4154,15 @@
         <v>65</v>
       </c>
       <c r="B332" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B333" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,15 +4170,15 @@
         <v>38</v>
       </c>
       <c r="B334" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B335" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4181,7 +4186,7 @@
         <v>65</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4194,7 @@
         <v>65</v>
       </c>
       <c r="B337" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,7 +4202,7 @@
         <v>65</v>
       </c>
       <c r="B338" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,23 +4210,23 @@
         <v>65</v>
       </c>
       <c r="B339" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B340" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4229,39 +4234,39 @@
         <v>65</v>
       </c>
       <c r="B342" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B343" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B344" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B345" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B346" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4269,15 +4274,15 @@
         <v>65</v>
       </c>
       <c r="B347" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B348" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4285,15 +4290,15 @@
         <v>38</v>
       </c>
       <c r="B349" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B350" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +4306,7 @@
         <v>65</v>
       </c>
       <c r="B351" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4314,7 @@
         <v>65</v>
       </c>
       <c r="B352" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4322,7 @@
         <v>65</v>
       </c>
       <c r="B353" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4330,7 @@
         <v>65</v>
       </c>
       <c r="B354" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4338,7 @@
         <v>65</v>
       </c>
       <c r="B355" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4346,7 @@
         <v>65</v>
       </c>
       <c r="B356" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4354,7 @@
         <v>65</v>
       </c>
       <c r="B357" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,6 +4362,14 @@
         <v>65</v>
       </c>
       <c r="B358" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>65</v>
+      </c>
+      <c r="B359" t="s">
         <v>369</v>
       </c>
     </row>

--- a/DATABASE_IA.xlsx
+++ b/DATABASE_IA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\FPNA-Tools v.1.1\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E67CAF-7B0D-49E8-AD43-F2A64AD45FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D98ECA-6CD9-4665-B803-452CB6561F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69F88D26-E53E-44EB-8F6B-6F72C75FF8C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="370">
   <si>
     <t>10.FOOD [BUMBU] - COM V.2</t>
   </si>
@@ -1135,9 +1135,6 @@
   </si>
   <si>
     <t>SPEAKER</t>
-  </si>
-  <si>
-    <t>MINYAK MIE SHALLOT OIL</t>
   </si>
 </sst>
 </file>
@@ -1490,10 +1487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B8BE52-5B4F-47C1-84A8-24A4E0133727}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,15 +1567,15 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1591,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,23 +1727,23 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,15 +1751,15 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1767,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1775,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1783,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1799,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1815,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1831,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,23 +1839,23 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1863,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1871,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1879,7 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1895,7 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1903,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1911,7 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +1927,7 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,23 +1943,23 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1967,7 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +1975,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +1983,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1991,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +1999,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,7 +2007,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2015,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,7 +2023,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2031,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2039,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2047,7 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2058,7 +2055,7 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,7 +2071,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2079,7 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,7 +2087,7 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2098,7 +2095,7 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,23 +2111,23 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2135,7 @@
         <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2143,7 @@
         <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2151,7 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2159,7 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2167,7 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +2175,7 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2183,7 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2191,7 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2199,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2210,7 +2207,7 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2215,7 @@
         <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,7 +2223,7 @@
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2231,7 @@
         <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2239,7 @@
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2247,7 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2263,7 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2271,7 @@
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2279,7 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2287,7 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2311,7 @@
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2319,7 @@
         <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,7 +2335,7 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2343,7 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2351,7 @@
         <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2359,7 @@
         <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2367,7 @@
         <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2375,7 @@
         <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2383,7 @@
         <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2399,7 @@
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2407,7 @@
         <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2415,7 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2423,7 @@
         <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2431,7 @@
         <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2439,7 @@
         <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2447,7 @@
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2455,7 @@
         <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2463,7 @@
         <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2471,7 @@
         <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2479,7 @@
         <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2487,7 @@
         <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2495,7 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2503,7 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2511,7 @@
         <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2519,7 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2527,7 @@
         <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2535,7 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,7 +2543,7 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,7 +2551,7 @@
         <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2559,7 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2567,7 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2575,7 @@
         <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2583,7 @@
         <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2591,7 @@
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2599,7 @@
         <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2607,7 @@
         <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2618,7 +2615,7 @@
         <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2634,7 +2631,7 @@
         <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2642,23 +2639,23 @@
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2663,7 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2671,7 @@
         <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2695,7 @@
         <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2703,7 @@
         <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2711,7 @@
         <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2719,7 @@
         <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2727,7 @@
         <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2735,7 @@
         <v>65</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2743,7 @@
         <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2751,7 @@
         <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>65</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2767,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2775,7 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2783,7 @@
         <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2799,7 @@
         <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,7 +2807,7 @@
         <v>65</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2815,7 @@
         <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +2823,7 @@
         <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,7 +2831,7 @@
         <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +2839,7 @@
         <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +2847,7 @@
         <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,7 +2855,7 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2863,7 @@
         <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2879,7 @@
         <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2887,7 @@
         <v>65</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2903,7 @@
         <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2911,7 @@
         <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2935,7 @@
         <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,23 +2943,23 @@
         <v>65</v>
       </c>
       <c r="B181" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B182" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B183" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2975,7 @@
         <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
         <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2991,7 @@
         <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +2999,7 @@
         <v>65</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3007,7 @@
         <v>65</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3015,7 @@
         <v>65</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3023,7 @@
         <v>65</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3031,7 @@
         <v>65</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3039,7 @@
         <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3047,7 @@
         <v>65</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3055,7 @@
         <v>65</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3063,7 @@
         <v>65</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3071,7 @@
         <v>65</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3087,7 @@
         <v>65</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3095,7 @@
         <v>65</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3103,7 @@
         <v>65</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3111,7 @@
         <v>65</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,31 +3119,31 @@
         <v>65</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,15 +3151,15 @@
         <v>65</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3170,15 +3167,15 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3183,7 @@
         <v>65</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3191,7 @@
         <v>65</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>65</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3207,7 @@
         <v>65</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3215,7 @@
         <v>65</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3223,7 @@
         <v>65</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3231,7 @@
         <v>65</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +3239,7 @@
         <v>65</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3247,7 @@
         <v>65</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3255,7 @@
         <v>65</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
         <v>65</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3271,7 @@
         <v>65</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3279,7 @@
         <v>65</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3287,7 @@
         <v>65</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3295,7 @@
         <v>65</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3303,7 @@
         <v>65</v>
       </c>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3311,7 @@
         <v>65</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3319,7 @@
         <v>65</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,23 +3327,23 @@
         <v>65</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3351,7 @@
         <v>65</v>
       </c>
       <c r="B232" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3367,7 @@
         <v>65</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3375,7 @@
         <v>65</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,7 +3383,7 @@
         <v>65</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3391,7 @@
         <v>65</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3399,7 @@
         <v>65</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3407,7 @@
         <v>65</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3415,7 @@
         <v>65</v>
       </c>
       <c r="B240" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3423,7 @@
         <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3431,7 @@
         <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3439,7 @@
         <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,23 +3455,23 @@
         <v>65</v>
       </c>
       <c r="B245" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>65</v>
       </c>
       <c r="B248" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3487,7 @@
         <v>65</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>65</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3503,7 @@
         <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="B252" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,7 +3519,7 @@
         <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3527,7 @@
         <v>65</v>
       </c>
       <c r="B254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3535,7 @@
         <v>65</v>
       </c>
       <c r="B255" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="B256" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3551,7 @@
         <v>65</v>
       </c>
       <c r="B257" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3559,7 @@
         <v>65</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3567,7 @@
         <v>65</v>
       </c>
       <c r="B259" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3578,7 +3575,7 @@
         <v>65</v>
       </c>
       <c r="B260" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3583,7 @@
         <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3591,7 @@
         <v>65</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3599,7 @@
         <v>65</v>
       </c>
       <c r="B263" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3607,7 @@
         <v>65</v>
       </c>
       <c r="B264" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3615,7 @@
         <v>65</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3623,7 @@
         <v>65</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3631,7 @@
         <v>65</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3639,7 @@
         <v>65</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +3647,7 @@
         <v>65</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3655,7 @@
         <v>65</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3663,7 @@
         <v>65</v>
       </c>
       <c r="B271" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3671,7 @@
         <v>65</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3679,7 @@
         <v>65</v>
       </c>
       <c r="B273" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3687,7 @@
         <v>65</v>
       </c>
       <c r="B274" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3695,7 @@
         <v>65</v>
       </c>
       <c r="B275" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3706,7 +3703,7 @@
         <v>65</v>
       </c>
       <c r="B276" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3711,7 @@
         <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,15 +3719,15 @@
         <v>65</v>
       </c>
       <c r="B278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="B279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,7 +3735,7 @@
         <v>287</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +3743,7 @@
         <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +3751,7 @@
         <v>287</v>
       </c>
       <c r="B282" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3759,7 @@
         <v>287</v>
       </c>
       <c r="B283" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +3767,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +3775,7 @@
         <v>287</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3783,7 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3791,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3799,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3807,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,47 +3815,47 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B291" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="B292" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,71 +3863,71 @@
         <v>65</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B304" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="B305" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3943,7 @@
         <v>65</v>
       </c>
       <c r="B306" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3951,7 @@
         <v>65</v>
       </c>
       <c r="B307" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,31 +3959,31 @@
         <v>65</v>
       </c>
       <c r="B308" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B309" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B310" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +3991,7 @@
         <v>13</v>
       </c>
       <c r="B312" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,39 +3999,39 @@
         <v>13</v>
       </c>
       <c r="B313" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="B315" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B316" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B317" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4039,7 @@
         <v>65</v>
       </c>
       <c r="B318" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4047,7 @@
         <v>65</v>
       </c>
       <c r="B319" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4055,7 @@
         <v>65</v>
       </c>
       <c r="B320" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4063,7 @@
         <v>65</v>
       </c>
       <c r="B321" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4071,7 @@
         <v>65</v>
       </c>
       <c r="B322" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,23 +4079,23 @@
         <v>65</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B324" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B325" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4103,7 @@
         <v>65</v>
       </c>
       <c r="B326" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,7 +4111,7 @@
         <v>65</v>
       </c>
       <c r="B327" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4119,7 @@
         <v>65</v>
       </c>
       <c r="B328" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4130,7 +4127,7 @@
         <v>65</v>
       </c>
       <c r="B329" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4138,7 +4135,7 @@
         <v>65</v>
       </c>
       <c r="B330" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4146,7 +4143,7 @@
         <v>65</v>
       </c>
       <c r="B331" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4154,15 +4151,15 @@
         <v>65</v>
       </c>
       <c r="B332" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B333" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,15 +4167,15 @@
         <v>38</v>
       </c>
       <c r="B334" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B335" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4186,7 +4183,7 @@
         <v>65</v>
       </c>
       <c r="B336" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4191,7 @@
         <v>65</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,7 +4199,7 @@
         <v>65</v>
       </c>
       <c r="B338" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4210,23 +4207,23 @@
         <v>65</v>
       </c>
       <c r="B339" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B340" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B341" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,39 +4231,39 @@
         <v>65</v>
       </c>
       <c r="B342" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B343" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B344" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B345" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B346" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4274,15 +4271,15 @@
         <v>65</v>
       </c>
       <c r="B347" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B348" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4290,15 +4287,15 @@
         <v>38</v>
       </c>
       <c r="B349" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B350" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,7 +4303,7 @@
         <v>65</v>
       </c>
       <c r="B351" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4314,7 +4311,7 @@
         <v>65</v>
       </c>
       <c r="B352" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4322,7 +4319,7 @@
         <v>65</v>
       </c>
       <c r="B353" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4330,7 +4327,7 @@
         <v>65</v>
       </c>
       <c r="B354" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4338,7 +4335,7 @@
         <v>65</v>
       </c>
       <c r="B355" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4346,7 +4343,7 @@
         <v>65</v>
       </c>
       <c r="B356" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,7 +4351,7 @@
         <v>65</v>
       </c>
       <c r="B357" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4362,14 +4359,6 @@
         <v>65</v>
       </c>
       <c r="B358" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>65</v>
-      </c>
-      <c r="B359" t="s">
         <v>369</v>
       </c>
     </row>
